--- a/Col.xlsx
+++ b/Col.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JUAN DIEGO\Dropbox\Taller Coronavirus\03. Wenliang\Otros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CAC59B1-8918-4591-9E58-4139ADBCBAEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA6C70A-F0C5-418B-BE4F-431E31BF856B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6D3F2D3E-9269-7D4C-8950-E525567608BC}"/>
   </bookViews>
@@ -41,13 +41,13 @@
     <t>fecha_final</t>
   </si>
   <si>
-    <t>pob _libre</t>
-  </si>
-  <si>
     <t>Country</t>
   </si>
   <si>
     <t>Colombia</t>
+  </si>
+  <si>
+    <t>pob_libre</t>
   </si>
 </sst>
 </file>
@@ -431,7 +431,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -447,10 +447,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -464,7 +464,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G2" s="1"/>
     </row>
@@ -479,7 +479,7 @@
         <v>0.9</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -493,7 +493,7 @@
         <v>0.125</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -507,7 +507,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -521,7 +521,7 @@
         <v>0.155</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -535,7 +535,7 @@
         <v>0.22</v>
       </c>
       <c r="D7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -549,7 +549,7 @@
         <v>0.33500000000000002</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -563,7 +563,7 @@
         <v>0.45400000000000001</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -577,7 +577,7 @@
         <v>0.56499999999999995</v>
       </c>
       <c r="D10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -591,7 +591,7 @@
         <v>0.65</v>
       </c>
       <c r="D11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Col.xlsx
+++ b/Col.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JUAN DIEGO\Dropbox\Taller Coronavirus\03. Wenliang\Otros\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA6C70A-F0C5-418B-BE4F-431E31BF856B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66CCA73C-D237-4B00-8685-1550053BF9A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6D3F2D3E-9269-7D4C-8950-E525567608BC}"/>
   </bookViews>
@@ -431,7 +431,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -455,7 +455,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="B2" s="1">
         <v>43910</v>
